--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_AnhTuanBG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhongKyThuat\2. Baocaobaohanh\Nam2020\Thang10\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang10\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="31" r:id="rId1"/>
@@ -881,6 +881,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,9 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1274,43 +1274,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1355,58 +1355,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1431,24 +1431,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1461,7 +1461,7 @@
       <c r="D6" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="98" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="71"/>
@@ -1488,7 +1488,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="85"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1527,7 +1527,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="85"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1564,7 +1564,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="85"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="85"/>
       <c r="U9" s="85"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="85"/>
       <c r="U10" s="85"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="85"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="85"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3090,10 +3090,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3122,8 +3122,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3149,8 +3149,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4437,6 +4437,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4447,16 +4457,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4468,7 +4468,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+      <selection activeCell="D6" sqref="D6:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4499,43 +4499,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4580,58 +4580,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4656,24 +4656,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4713,7 +4713,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4760,7 +4760,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4811,7 +4811,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4893,7 +4893,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4951,7 +4951,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4982,7 +4982,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5011,7 +5011,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5069,7 +5069,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6303,10 +6303,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6335,8 +6335,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6362,8 +6362,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7650,6 +7650,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7660,16 +7670,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7681,7 +7681,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+      <selection activeCell="D6" sqref="D6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7712,43 +7712,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7793,58 +7793,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7869,24 +7869,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7934,7 +7934,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="67"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7983,7 +7983,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="67"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="67"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8070,7 +8070,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="67"/>
       <c r="U10" s="67"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="67"/>
       <c r="U11" s="67"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="67"/>
       <c r="U12" s="67"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8159,7 +8159,7 @@
       <c r="S13" s="96"/>
       <c r="T13" s="67"/>
       <c r="U13" s="67"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8188,7 +8188,7 @@
       <c r="S14" s="96"/>
       <c r="T14" s="67"/>
       <c r="U14" s="67"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9480,10 +9480,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9512,8 +9512,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9539,8 +9539,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10827,6 +10827,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10837,16 +10847,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10857,8 +10857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:T6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10889,43 +10889,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="73"/>
@@ -10970,58 +10970,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -11046,24 +11046,24 @@
       <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="T6" s="11"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11144,7 +11144,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11202,7 +11202,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11231,7 +11231,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11260,7 +11260,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11289,7 +11289,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11320,7 +11320,7 @@
       <c r="S13" s="60"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11349,7 +11349,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11407,7 +11407,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12641,10 +12641,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12673,8 +12673,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12700,8 +12700,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13988,6 +13988,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13998,16 +14008,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14050,43 +14050,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="111"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -14131,58 +14131,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="105"/>
-      <c r="M4" s="113" t="s">
+      <c r="L4" s="106"/>
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="105" t="s">
+      <c r="O4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="106" t="s">
+      <c r="S4" s="107" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="105" t="s">
+      <c r="V4" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="105" t="s">
+      <c r="W4" s="106" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -14207,24 +14207,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="105"/>
+      <c r="J5" s="106"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="107"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="108"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="105"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -14250,7 +14250,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="99" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14281,7 +14281,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="100"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14310,7 +14310,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="100"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="100"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14368,7 +14368,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="100"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14397,7 +14397,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="100"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14426,7 +14426,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="99" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14457,7 +14457,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="100"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14486,7 +14486,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="100"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14515,7 +14515,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="100"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14544,7 +14544,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="101"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15778,10 +15778,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="102">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15810,8 +15810,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15837,8 +15837,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -17125,6 +17125,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -17135,16 +17145,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_AnhTuanBG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="31" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -346,6 +346,40 @@
   </si>
   <si>
     <t>RTC</t>
+  </si>
+  <si>
+    <t>Không bắn lên terminal, lỗi bộ nhớ</t>
+  </si>
+  <si>
+    <t>Thay ic giao tiếp, flash</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Chập MCU</t>
+  </si>
+  <si>
+    <t>Thay MCU</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00042.250815</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID: 1504021332
+</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G13"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1478,13 +1512,23 @@
       <c r="K6" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="L6" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="55"/>
       <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="P6" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="85"/>
@@ -1509,21 +1553,41 @@
       <c r="E7" s="68">
         <v>865904020083843</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="51" t="s">
+        <v>111</v>
+      </c>
       <c r="G7" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="55"/>
+      <c r="M7" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="55">
+        <v>120000</v>
+      </c>
       <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="P7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="85"/>
@@ -1550,17 +1614,31 @@
       <c r="G8" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="62"/>
+      <c r="H8" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>94</v>
+      </c>
       <c r="J8" s="92"/>
-      <c r="K8" s="56"/>
+      <c r="K8" s="56" t="s">
+        <v>95</v>
+      </c>
       <c r="L8" s="56"/>
-      <c r="M8" s="92"/>
+      <c r="M8" s="92" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="95"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="P8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="85"/>
@@ -1662,16 +1740,30 @@
         <v>67</v>
       </c>
       <c r="H11" s="51"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="53"/>
+      <c r="I11" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>105</v>
+      </c>
       <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="53"/>
+      <c r="L11" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>91</v>
+      </c>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="P11" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
@@ -1700,15 +1792,27 @@
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="62"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="53" t="s">
+        <v>102</v>
+      </c>
       <c r="K12" s="56"/>
       <c r="L12" s="56"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
+      <c r="M12" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="55">
+        <v>140000</v>
+      </c>
       <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="P12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
@@ -1975,7 +2079,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,7 +2111,7 @@
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2156,7 +2260,7 @@
       </c>
       <c r="W26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2316,7 +2420,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,7 +2516,7 @@
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2548,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2508,7 +2612,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7680,8 +7784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10857,7 +10961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang10/02.XuLyBH/XLBH2010_AnhTuanBG.xlsx
@@ -9,25 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102" sheetId="31" r:id="rId1"/>
-    <sheet name="TG102SE" sheetId="30" r:id="rId2"/>
-    <sheet name="TG102LE" sheetId="29" r:id="rId3"/>
-    <sheet name="TG102V" sheetId="27" r:id="rId4"/>
+    <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="27" r:id="rId2"/>
+    <sheet name="TG102SE" sheetId="30" r:id="rId3"/>
+    <sheet name="TG102" sheetId="31" r:id="rId4"/>
     <sheet name="TongHopThang" sheetId="22" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TG102'!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102LE!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102SE!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102V!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'TG102'!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TG102SE!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'TG102'!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TG102SE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">'TG102'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TG102SE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="4">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -279,12 +279,6 @@
     <t>Tùng</t>
   </si>
   <si>
-    <t>Nổ chập nổ nguồn 3v3</t>
-  </si>
-  <si>
-    <t>Thay tụ tantalum, thay ic nguồn 3v3, thay MCU</t>
-  </si>
-  <si>
     <t>Lock: 125.212.203.114,16767</t>
   </si>
   <si>
@@ -304,12 +298,6 @@
   </si>
   <si>
     <t>SE.4.00.---05.200527</t>
-  </si>
-  <si>
-    <t>Khởi tạo lại thiết bị</t>
-  </si>
-  <si>
-    <t>Hết hạn dịch vụ</t>
   </si>
   <si>
     <t>Thiết bị reset liện tục</t>
@@ -333,19 +321,7 @@
     <t>012896001439824</t>
   </si>
   <si>
-    <t>Lỗi module GSM, thiết bị không cập nhật sai ngày</t>
-  </si>
-  <si>
     <t>X.4.0.0.00001.221117</t>
-  </si>
-  <si>
-    <t>Thay module GSM, thay module GPS</t>
-  </si>
-  <si>
-    <t>GSM,GPS</t>
-  </si>
-  <si>
-    <t>RTC</t>
   </si>
   <si>
     <t>Không bắn lên terminal, lỗi bộ nhớ</t>
@@ -380,6 +356,63 @@
   <si>
     <t xml:space="preserve">ID: 1504021332
 </t>
+  </si>
+  <si>
+    <t>MCU,NCFW</t>
+  </si>
+  <si>
+    <t>Lỗi module GSM, lỗi module GPS</t>
+  </si>
+  <si>
+    <t>GSM, GPS</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033791976</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Nổ chập nổ 4v4, 3v3, module GSM</t>
+  </si>
+  <si>
+    <t>Thay tụ tantalum, thay ic nguồn 3v3, thay MCU, IC nguồn 4v4, module GSM/GPS</t>
+  </si>
+  <si>
+    <t>NG,MCU,GSM</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SF,NCFW</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ, sim lỗi</t>
+  </si>
+  <si>
+    <t>Thiết bị báo giá không sửa</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183033792016, trả lại a.Thông test lại</t>
   </si>
 </sst>
 </file>
@@ -474,7 +507,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +529,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -622,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -918,6 +957,30 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,34 +1002,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1276,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1308,43 +1371,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1389,58 +1452,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1465,24 +1528,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1491,48 +1554,52 @@
       <c r="B6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="87" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>92</v>
+        <v>44</v>
+      </c>
+      <c r="E6" s="68">
+        <v>868183038477837</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="51" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="53"/>
+        <v>75</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>104</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="L6" s="56"/>
       <c r="M6" s="53" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>78</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="99" t="s">
+      <c r="U6" s="67"/>
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1540,58 +1607,60 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="116">
         <v>2</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="68">
-        <v>865904020083843</v>
-      </c>
-      <c r="F7" s="51" t="s">
+      <c r="C7" s="117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="119">
+        <v>868183037864043</v>
+      </c>
+      <c r="F7" s="120"/>
+      <c r="G7" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="116" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="N7" s="55">
-        <v>120000</v>
-      </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
+      <c r="N7" s="122"/>
+      <c r="O7" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="4"/>
+      <c r="R7" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="116"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="100"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1600,49 +1669,27 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="B8" s="87"/>
       <c r="C8" s="87"/>
-      <c r="D8" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="68">
-        <v>865904028275821</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="92"/>
-      <c r="K8" s="56" t="s">
-        <v>95</v>
-      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="56"/>
-      <c r="M8" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="95"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="51" t="s">
-        <v>24</v>
-      </c>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="51"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="100"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1651,21 +1698,13 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="B9" s="87"/>
       <c r="C9" s="87"/>
-      <c r="D9" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="52">
-        <v>866762026904209</v>
-      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="71"/>
-      <c r="G9" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="71"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="62"/>
       <c r="J9" s="53"/>
       <c r="K9" s="56"/>
@@ -1677,9 +1716,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="51"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="100"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1688,24 +1727,16 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="B10" s="87"/>
       <c r="C10" s="87"/>
-      <c r="D10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="52">
-        <v>867330024351150</v>
-      </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="71"/>
-      <c r="I10" s="62"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="53"/>
-      <c r="K10" s="56"/>
+      <c r="K10" s="93"/>
       <c r="L10" s="56"/>
       <c r="M10" s="53"/>
       <c r="N10" s="55"/>
@@ -1714,9 +1745,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="51"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="100"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1725,49 +1756,27 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="B11" s="87"/>
       <c r="C11" s="87"/>
-      <c r="D11" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="52">
-        <v>865904020097850</v>
-      </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="51" t="s">
-        <v>67</v>
-      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="53" t="s">
-        <v>105</v>
-      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>91</v>
-      </c>
+      <c r="L11" s="56"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
-      <c r="P11" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="51" t="s">
-        <v>36</v>
-      </c>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="100"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1776,47 +1785,27 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="52">
-        <v>865904020096217</v>
-      </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="56"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="56"/>
-      <c r="M12" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="55">
-        <v>140000</v>
-      </c>
+      <c r="M12" s="53"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="53"/>
-      <c r="P12" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="51" t="s">
-        <v>30</v>
-      </c>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="99" t="s">
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1827,53 +1816,27 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>96</v>
-      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="71"/>
-      <c r="I13" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="93" t="s">
-        <v>98</v>
-      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="93"/>
       <c r="L13" s="56"/>
-      <c r="M13" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="95">
-        <v>350000</v>
-      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="95"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="S13" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="100"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1882,27 +1845,27 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="100"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1911,27 +1874,27 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="13"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="55"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
+      <c r="P15" s="53"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="11"/>
+      <c r="R15" s="51"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="85"/>
+      <c r="T15" s="67"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1940,27 +1903,27 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
-      <c r="F16" s="51"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="55"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="53"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="11"/>
+      <c r="R16" s="51"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="85"/>
+      <c r="T16" s="67"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1969,52 +1932,52 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="95"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="11"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="51"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="85"/>
+      <c r="T17" s="67"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="85"/>
+      <c r="V17" s="67"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="53"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="85"/>
+      <c r="T18" s="67"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -2023,25 +1986,25 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="1"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="85"/>
+      <c r="T19" s="67"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -2054,79 +2017,79 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="11"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="85"/>
+      <c r="T20" s="67"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="85"/>
+      <c r="T21" s="67"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -2136,7 +2099,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="85"/>
+      <c r="T22" s="67"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -2150,15 +2113,15 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -2168,7 +2131,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="85"/>
+      <c r="T23" s="67"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -2177,15 +2140,15 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -2195,7 +2158,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="85"/>
+      <c r="T24" s="67"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -2204,25 +2167,25 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="85"/>
+      <c r="T25" s="67"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -2253,7 +2216,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="85"/>
+      <c r="T26" s="67"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -2285,14 +2248,14 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="85"/>
+      <c r="T27" s="67"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,14 +2280,14 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="85"/>
+      <c r="T28" s="67"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="W28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2349,7 +2312,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="85"/>
+      <c r="T29" s="67"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -2381,14 +2344,14 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="85"/>
+      <c r="T30" s="67"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,14 +2376,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="85"/>
+      <c r="T31" s="67"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,7 +2408,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="85"/>
+      <c r="T32" s="67"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -2477,7 +2440,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="85"/>
+      <c r="T33" s="67"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -2509,14 +2472,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="85"/>
+      <c r="T34" s="67"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2541,14 +2504,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="85"/>
+      <c r="T35" s="67"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,7 +2536,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="85"/>
+      <c r="T36" s="67"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -2605,14 +2568,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="85"/>
+      <c r="T37" s="67"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2600,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="85"/>
+      <c r="T38" s="67"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -2664,7 +2627,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="85"/>
+      <c r="T39" s="67"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -2691,7 +2654,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="85"/>
+      <c r="T40" s="67"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -2723,7 +2686,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="85"/>
+      <c r="T41" s="67"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -2755,7 +2718,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="85"/>
+      <c r="T42" s="67"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -2782,7 +2745,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="85"/>
+      <c r="T43" s="67"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -2879,7 +2842,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2984,10 +2947,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="86"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -2998,7 +2961,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="86"/>
+      <c r="R50" s="66"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -3071,7 +3034,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,10 +3157,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3226,8 +3189,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3253,8 +3216,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4541,6 +4504,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4551,16 +4524,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4572,7 +4535,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4585,14 +4548,14 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="84" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
+    <col min="16" max="16" width="22" style="22" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
     <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
@@ -4603,46 +4566,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -4667,7 +4630,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -4684,58 +4647,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4757,27 +4720,27 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4786,38 +4749,54 @@
       <c r="B6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="87" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="68">
-        <v>866104022260874</v>
-      </c>
-      <c r="F6" s="71"/>
+        <v>864811037229346</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>103</v>
+      </c>
       <c r="G6" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="H6" s="51"/>
       <c r="I6" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="53"/>
+        <v>79</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>70</v>
+      </c>
       <c r="K6" s="53" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="99" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4828,43 +4807,27 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="B7" s="87"/>
       <c r="C7" s="87"/>
-      <c r="D7" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="68">
-        <v>861694031096272</v>
-      </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="62" t="s">
-        <v>75</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="62"/>
       <c r="J7" s="53"/>
-      <c r="K7" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="56"/>
       <c r="M7" s="53"/>
       <c r="N7" s="55"/>
       <c r="O7" s="53"/>
-      <c r="P7" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="51"/>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="100"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4873,49 +4836,27 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="B8" s="87"/>
       <c r="C8" s="87"/>
-      <c r="D8" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="68">
-        <v>862631034746460</v>
-      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="71"/>
-      <c r="G8" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="N8" s="95"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="55"/>
       <c r="O8" s="53"/>
-      <c r="P8" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="51" t="s">
-        <v>37</v>
-      </c>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="51"/>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="100"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4924,51 +4865,27 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>71</v>
-      </c>
+      <c r="B9" s="87"/>
       <c r="C9" s="87"/>
-      <c r="D9" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="68">
-        <v>861694031760554</v>
-      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="71"/>
-      <c r="G9" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>90</v>
-      </c>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53" t="s">
-        <v>91</v>
-      </c>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="55"/>
       <c r="O9" s="53"/>
-      <c r="P9" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="100"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4977,13 +4894,13 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
       <c r="K10" s="56"/>
@@ -4995,9 +4912,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="51"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="100"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5006,17 +4923,17 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="51"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="1"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
       <c r="M11" s="53"/>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
@@ -5024,9 +4941,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="100"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5035,27 +4952,27 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="51"/>
-      <c r="E12" s="57"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="56"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
       <c r="M12" s="53"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="55"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="56"/>
+      <c r="R12" s="51"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="99" t="s">
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -5066,27 +4983,27 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="61"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="100"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5102,7 +5019,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="1"/>
       <c r="K14" s="53"/>
       <c r="L14" s="1"/>
@@ -5113,9 +5030,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5127,11 +5044,11 @@
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="77"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -5142,9 +5059,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="70"/>
+      <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5160,20 +5077,20 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="1"/>
       <c r="O16" s="53"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="70"/>
+      <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5189,20 +5106,20 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="1"/>
       <c r="O17" s="53"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="70"/>
+      <c r="T17" s="64"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="70"/>
+      <c r="V17" s="64"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5216,9 +5133,9 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="15"/>
@@ -5227,7 +5144,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="70"/>
+      <c r="T18" s="64"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -5243,7 +5160,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -5254,7 +5171,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="70"/>
+      <c r="T19" s="64"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -5274,7 +5191,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -5285,14 +5202,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="70"/>
+      <c r="T20" s="64"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5306,7 +5223,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -5317,7 +5234,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="70"/>
+      <c r="T21" s="64"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
@@ -5338,7 +5255,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -5349,14 +5266,14 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="70"/>
+      <c r="T22" s="64"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5370,7 +5287,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="80"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -5381,7 +5298,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="70"/>
+      <c r="T23" s="64"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -5397,7 +5314,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="80"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -5408,7 +5325,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="70"/>
+      <c r="T24" s="64"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -5424,7 +5341,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="80"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -5435,7 +5352,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="70"/>
+      <c r="T25" s="64"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -5455,7 +5372,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -5466,7 +5383,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="70"/>
+      <c r="T26" s="64"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -5487,7 +5404,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="80"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -5498,7 +5415,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="70"/>
+      <c r="T27" s="64"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
@@ -5519,7 +5436,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -5530,7 +5447,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="70"/>
+      <c r="T28" s="64"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -5551,7 +5468,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="I29" s="78"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -5562,7 +5479,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="70"/>
+      <c r="T29" s="64"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -5583,7 +5500,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="I30" s="78"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5594,7 +5511,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="70"/>
+      <c r="T30" s="64"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -5615,7 +5532,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5626,7 +5543,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="70"/>
+      <c r="T31" s="64"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -5647,7 +5564,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="78"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5658,7 +5575,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="70"/>
+      <c r="T32" s="64"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -5679,7 +5596,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5690,14 +5607,14 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="70"/>
+      <c r="T33" s="64"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5711,7 +5628,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5722,7 +5639,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="70"/>
+      <c r="T34" s="64"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -5743,7 +5660,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="78"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5754,7 +5671,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="70"/>
+      <c r="T35" s="64"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
@@ -5775,7 +5692,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="78"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5786,7 +5703,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="70"/>
+      <c r="T36" s="64"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
@@ -5807,7 +5724,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="78"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5818,14 +5735,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="70"/>
+      <c r="T37" s="64"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5756,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5850,7 +5767,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="70"/>
+      <c r="T38" s="64"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -5866,7 +5783,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5877,7 +5794,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="70"/>
+      <c r="T39" s="64"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -5893,7 +5810,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="78"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5904,7 +5821,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="70"/>
+      <c r="T40" s="64"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -5925,7 +5842,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5936,7 +5853,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="70"/>
+      <c r="T41" s="64"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -5957,7 +5874,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="78"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5968,7 +5885,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="70"/>
+      <c r="T42" s="64"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -5984,7 +5901,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="78"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -5995,7 +5912,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="70"/>
+      <c r="T43" s="64"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -6011,7 +5928,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="78"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6042,7 +5959,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="78"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6074,7 +5991,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="78"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6106,7 +6023,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="78"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6138,7 +6055,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="78"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6156,7 +6073,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6170,7 +6087,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="78"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6188,7 +6105,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,12 +6114,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="69"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="81"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -6211,7 +6128,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="69"/>
+      <c r="R50" s="65"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -6234,7 +6151,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="78"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6266,7 +6183,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="I52" s="82"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -6298,7 +6215,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="I53" s="82"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -6330,7 +6247,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -6362,7 +6279,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="I55" s="82"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -6394,7 +6311,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="I56" s="82"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -6407,10 +6324,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6426,7 +6343,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="I57" s="82"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -6439,8 +6356,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6453,7 +6370,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="I58" s="82"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -6466,8 +6383,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -6480,7 +6397,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="I59" s="82"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -6507,7 +6424,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="I60" s="82"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -6534,7 +6451,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="I61" s="82"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -6566,7 +6483,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="82"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -6598,7 +6515,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="I63" s="82"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -6625,7 +6542,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="I64" s="82"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -6652,7 +6569,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="I65" s="82"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -6679,7 +6596,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="I66" s="82"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -6706,7 +6623,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="I67" s="82"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -6736,7 +6653,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="I68" s="82"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -6763,7 +6680,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="I69" s="82"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -6790,7 +6707,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="I70" s="82"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -6817,7 +6734,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="I71" s="82"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -6844,7 +6761,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="I72" s="82"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -6871,7 +6788,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
+      <c r="I73" s="82"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -6898,7 +6815,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+      <c r="I74" s="82"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -6925,7 +6842,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
+      <c r="I75" s="82"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -6952,7 +6869,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
+      <c r="I76" s="82"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -6979,7 +6896,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
+      <c r="I77" s="82"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -7006,7 +6923,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+      <c r="I78" s="82"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -7033,7 +6950,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
+      <c r="I79" s="82"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -7060,7 +6977,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="36"/>
+      <c r="I80" s="82"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -7087,7 +7004,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
+      <c r="I81" s="82"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -7114,7 +7031,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="I82" s="82"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -7141,7 +7058,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="I83" s="82"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -7168,7 +7085,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
+      <c r="I84" s="82"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -7195,7 +7112,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
+      <c r="I85" s="82"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -7222,7 +7139,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+      <c r="I86" s="82"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -7249,7 +7166,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
+      <c r="I87" s="82"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -7276,7 +7193,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+      <c r="I88" s="82"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -7303,7 +7220,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
+      <c r="I89" s="82"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -7330,7 +7247,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
+      <c r="I90" s="82"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -7357,7 +7274,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="36"/>
+      <c r="I91" s="82"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -7384,7 +7301,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
+      <c r="I92" s="82"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -7411,7 +7328,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
+      <c r="I93" s="82"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -7438,7 +7355,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="82"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -7465,7 +7382,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="I95" s="82"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -7492,7 +7409,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="I96" s="82"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -7519,7 +7436,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
+      <c r="I97" s="82"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -7546,7 +7463,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="36"/>
+      <c r="I98" s="82"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -7573,7 +7490,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="82"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -7600,7 +7517,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
+      <c r="I100" s="82"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -7627,7 +7544,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="36"/>
+      <c r="I101" s="82"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -7654,7 +7571,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
+      <c r="I102" s="82"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -7681,7 +7598,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
+      <c r="I103" s="82"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -7708,7 +7625,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
+      <c r="I104" s="82"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -7735,7 +7652,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
+      <c r="I105" s="82"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -7784,8 +7701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7816,43 +7733,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7897,58 +7814,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7973,24 +7890,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7999,46 +7916,48 @@
       <c r="B6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="87" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="68">
-        <v>868183038477837</v>
+        <v>866104022260874</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="51" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="53" t="s">
-        <v>76</v>
-      </c>
+      <c r="J6" s="53"/>
       <c r="K6" s="53" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="L6" s="56"/>
       <c r="M6" s="53" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>78</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="99" t="s">
+      <c r="U6" s="70"/>
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -8052,42 +7971,50 @@
       <c r="B7" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="87" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="68">
-        <v>868183037864043</v>
+        <v>861694031096272</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="56"/>
+        <v>67</v>
+      </c>
+      <c r="H7" s="71"/>
+      <c r="I7" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="53"/>
+      <c r="K7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>82</v>
+      </c>
       <c r="M7" s="53" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
+      <c r="O7" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="P7" s="53" t="s">
         <v>78</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="100"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8096,27 +8023,57 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="B8" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="68">
+        <v>862631034746460</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="71"/>
+      <c r="I8" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="95"/>
+      <c r="O8" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>118</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="100"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8125,27 +8082,59 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="53"/>
+      <c r="B9" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="68">
+        <v>861694031760554</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>86</v>
+      </c>
       <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="L9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="100"/>
+      <c r="O9" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8154,17 +8143,17 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
-      <c r="H10" s="71"/>
+      <c r="H10" s="51"/>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="53"/>
       <c r="M10" s="53"/>
       <c r="N10" s="55"/>
       <c r="O10" s="53"/>
@@ -8172,9 +8161,9 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="51"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="100"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8183,8 +8172,8 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="51"/>
@@ -8193,7 +8182,7 @@
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
       <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="53"/>
       <c r="N11" s="55"/>
       <c r="O11" s="53"/>
@@ -8201,9 +8190,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="51"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="100"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8212,27 +8201,27 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="51"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="56"/>
       <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="53"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="R12" s="56"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="99" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8243,27 +8232,27 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
-      <c r="F13" s="71"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="92"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="53"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="95"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="100"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8272,27 +8261,27 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="100"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8301,27 +8290,27 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="71"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
       <c r="G15" s="51"/>
-      <c r="H15" s="71"/>
+      <c r="H15" s="51"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="55"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="51"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="67"/>
+      <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8330,27 +8319,27 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="52"/>
-      <c r="F16" s="88"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="55"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="51"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="67"/>
+      <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8359,52 +8348,52 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="57"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="95"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="51"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="67"/>
+      <c r="T17" s="70"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="67"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="53"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="67"/>
+      <c r="T18" s="70"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -8413,25 +8402,25 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="11"/>
+      <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="67"/>
+      <c r="T19" s="70"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -8444,79 +8433,79 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="67"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="11"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="67"/>
+      <c r="T21" s="70"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="71"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -8526,7 +8515,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="67"/>
+      <c r="T22" s="70"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -8540,15 +8529,15 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -8558,7 +8547,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="67"/>
+      <c r="T23" s="70"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -8567,15 +8556,15 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -8585,7 +8574,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="67"/>
+      <c r="T24" s="70"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -8594,25 +8583,25 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="67"/>
+      <c r="T25" s="70"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -8643,7 +8632,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="67"/>
+      <c r="T26" s="70"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
@@ -8675,14 +8664,14 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="67"/>
+      <c r="T27" s="70"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8707,7 +8696,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="67"/>
+      <c r="T28" s="70"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
@@ -8739,7 +8728,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="67"/>
+      <c r="T29" s="70"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -8771,14 +8760,14 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="67"/>
+      <c r="T30" s="70"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
       </c>
       <c r="W30" s="11">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8803,7 +8792,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="67"/>
+      <c r="T31" s="70"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
@@ -8835,7 +8824,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="67"/>
+      <c r="T32" s="70"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -8867,14 +8856,14 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="67"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="W33" s="11">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8899,7 +8888,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="67"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
@@ -8931,14 +8920,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="67"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8963,14 +8952,14 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="67"/>
+      <c r="T36" s="70"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8995,14 +8984,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="67"/>
+      <c r="T37" s="70"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9027,7 +9016,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="67"/>
+      <c r="T38" s="70"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -9054,7 +9043,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="67"/>
+      <c r="T39" s="70"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -9081,7 +9070,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="67"/>
+      <c r="T40" s="70"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -9113,7 +9102,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="67"/>
+      <c r="T41" s="70"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -9145,7 +9134,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="67"/>
+      <c r="T42" s="70"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -9172,7 +9161,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="67"/>
+      <c r="T43" s="70"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -9269,7 +9258,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9365,7 +9354,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9374,10 +9363,10 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="66"/>
+      <c r="D50" s="69"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
@@ -9388,7 +9377,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="66"/>
+      <c r="R50" s="69"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -9584,10 +9573,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9616,8 +9605,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9643,8 +9632,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10961,8 +10950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10975,14 +10964,14 @@
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
     <col min="7" max="7" width="17" style="22" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="84" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="22" customWidth="1"/>
     <col min="10" max="10" width="53" style="22" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="22" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="27" customWidth="1"/>
     <col min="13" max="13" width="58" style="22" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="22" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" style="22" customWidth="1"/>
-    <col min="16" max="16" width="22" style="22" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="22" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="22" customWidth="1"/>
     <col min="18" max="18" width="21.140625" style="22" customWidth="1"/>
     <col min="19" max="20" width="26.85546875" style="22" customWidth="1"/>
@@ -10993,46 +10982,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="73"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="24"/>
@@ -11057,7 +11046,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="74"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
@@ -11074,58 +11063,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -11147,27 +11136,27 @@
       <c r="H5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11176,48 +11165,52 @@
       <c r="B6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="87" t="s">
+        <v>122</v>
+      </c>
       <c r="D6" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="68">
-        <v>864811037229346</v>
+        <v>51</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>88</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="51"/>
+        <v>67</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>89</v>
+      </c>
       <c r="I6" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>70</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J6" s="53"/>
       <c r="K6" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="56"/>
+        <v>91</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>96</v>
+      </c>
       <c r="M6" s="53" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
+      <c r="O6" s="53" t="s">
+        <v>119</v>
+      </c>
       <c r="P6" s="53" t="s">
         <v>78</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="R6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="99" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11228,27 +11221,61 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="B7" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="68">
+        <v>865904020083843</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="55">
+        <v>120000</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="100"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11257,27 +11284,53 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="68">
+        <v>865904028275821</v>
+      </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="92"/>
+      <c r="K8" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="95"/>
+      <c r="O8" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="100"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11286,27 +11339,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="62"/>
+      <c r="B9" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="52">
+        <v>866762026904209</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>75</v>
+      </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="53" t="s">
+        <v>116</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="100"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11315,27 +11396,55 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="53"/>
+      <c r="B10" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="52">
+        <v>867330024351150</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>100</v>
+      </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="K10" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="56"/>
+      <c r="M10" s="53" t="s">
+        <v>116</v>
+      </c>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
+      <c r="O10" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="100"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11344,27 +11453,53 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="B11" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="52">
+        <v>865904020097850</v>
+      </c>
+      <c r="F11" s="71"/>
+      <c r="G11" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>36</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="100"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11373,27 +11508,51 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="52">
+        <v>865904020096217</v>
+      </c>
+      <c r="F12" s="71"/>
+      <c r="G12" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H12" s="71"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="55">
+        <v>140000</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>30</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="99" t="s">
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11404,27 +11563,53 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="B13" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="H13" s="71"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="100"/>
+      <c r="I13" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="56"/>
+      <c r="M13" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="95"/>
+      <c r="O13" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="96"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11440,7 +11625,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="77"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="53"/>
       <c r="L14" s="1"/>
@@ -11451,9 +11636,9 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="100"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11465,11 +11650,11 @@
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="77"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -11480,9 +11665,9 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="11"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="64"/>
+      <c r="T15" s="85"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11498,20 +11683,20 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="76"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="53"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="53"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="11"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="64"/>
+      <c r="T16" s="85"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11527,20 +11712,20 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="76"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="53"/>
+      <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="53"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="11"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="64"/>
+      <c r="T17" s="85"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11554,9 +11739,9 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="79"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="72"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="15"/>
@@ -11565,7 +11750,7 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="64"/>
+      <c r="T18" s="85"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="W18" s="18"/>
@@ -11581,7 +11766,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="78"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -11592,7 +11777,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="11"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="64"/>
+      <c r="T19" s="85"/>
       <c r="U19" s="16"/>
       <c r="V19" s="58" t="s">
         <v>39</v>
@@ -11612,7 +11797,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="78"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -11623,14 +11808,14 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="64"/>
+      <c r="T20" s="85"/>
       <c r="U20" s="16"/>
       <c r="V20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11644,7 +11829,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="78"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -11655,14 +11840,14 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="64"/>
+      <c r="T21" s="85"/>
       <c r="U21" s="16"/>
       <c r="V21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11676,7 +11861,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="80"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -11687,7 +11872,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="64"/>
+      <c r="T22" s="85"/>
       <c r="U22" s="16"/>
       <c r="V22" s="11" t="s">
         <v>58</v>
@@ -11708,7 +11893,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="80"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -11719,7 +11904,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="11"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="64"/>
+      <c r="T23" s="85"/>
       <c r="U23" s="16"/>
       <c r="V23" s="16"/>
       <c r="W23" s="18"/>
@@ -11735,7 +11920,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
-      <c r="I24" s="80"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -11746,7 +11931,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="11"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="85"/>
       <c r="U24" s="16"/>
       <c r="V24" s="16"/>
       <c r="W24" s="18"/>
@@ -11762,7 +11947,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" s="80"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -11773,7 +11958,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="11"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="64"/>
+      <c r="T25" s="85"/>
       <c r="U25" s="16"/>
       <c r="V25" s="58" t="s">
         <v>54</v>
@@ -11793,7 +11978,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="80"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="1"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -11804,14 +11989,14 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="11"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="64"/>
+      <c r="T26" s="85"/>
       <c r="U26" s="16"/>
       <c r="V26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="W26" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11825,7 +12010,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="80"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -11836,14 +12021,14 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="11"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="64"/>
+      <c r="T27" s="85"/>
       <c r="U27" s="16"/>
       <c r="V27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="W27" s="11">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11857,7 +12042,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="78"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -11868,14 +12053,14 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="11"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="64"/>
+      <c r="T28" s="85"/>
       <c r="U28" s="16"/>
       <c r="V28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="W28" s="11">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11889,7 +12074,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="78"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -11900,7 +12085,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="11"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="64"/>
+      <c r="T29" s="85"/>
       <c r="U29" s="16"/>
       <c r="V29" s="4" t="s">
         <v>60</v>
@@ -11921,7 +12106,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="78"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -11932,7 +12117,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="11"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="64"/>
+      <c r="T30" s="85"/>
       <c r="U30" s="16"/>
       <c r="V30" s="4" t="s">
         <v>32</v>
@@ -11953,7 +12138,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="78"/>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -11964,14 +12149,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="11"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="64"/>
+      <c r="T31" s="85"/>
       <c r="U31" s="16"/>
       <c r="V31" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11985,7 +12170,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="78"/>
+      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -11996,7 +12181,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="11"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="64"/>
+      <c r="T32" s="85"/>
       <c r="U32" s="16"/>
       <c r="V32" s="4" t="s">
         <v>28</v>
@@ -12017,7 +12202,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="78"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -12028,7 +12213,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="11"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="64"/>
+      <c r="T33" s="85"/>
       <c r="U33" s="16"/>
       <c r="V33" s="4" t="s">
         <v>55</v>
@@ -12049,7 +12234,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="78"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -12060,14 +12245,14 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="11"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="64"/>
+      <c r="T34" s="85"/>
       <c r="U34" s="16"/>
       <c r="V34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="11">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12081,7 +12266,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="78"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -12092,14 +12277,14 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="11"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="64"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="16"/>
       <c r="V35" s="4" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12113,7 +12298,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="78"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -12124,14 +12309,14 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="11"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="64"/>
+      <c r="T36" s="85"/>
       <c r="U36" s="16"/>
       <c r="V36" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W36" s="11">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12145,7 +12330,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="78"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -12156,14 +12341,14 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="11"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="64"/>
+      <c r="T37" s="85"/>
       <c r="U37" s="16"/>
       <c r="V37" s="20" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12177,7 +12362,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="78"/>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -12188,7 +12373,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="11"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="64"/>
+      <c r="T38" s="85"/>
       <c r="U38" s="16"/>
       <c r="V38" s="16"/>
       <c r="W38" s="18"/>
@@ -12204,7 +12389,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="78"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -12215,7 +12400,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="11"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="85"/>
       <c r="U39" s="16"/>
       <c r="V39" s="16"/>
       <c r="W39" s="18"/>
@@ -12231,7 +12416,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="78"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -12242,7 +12427,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="11"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="64"/>
+      <c r="T40" s="85"/>
       <c r="U40" s="16"/>
       <c r="V40" s="20" t="s">
         <v>40</v>
@@ -12263,7 +12448,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="78"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -12274,7 +12459,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="11"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="64"/>
+      <c r="T41" s="85"/>
       <c r="U41" s="16"/>
       <c r="V41" s="20" t="s">
         <v>41</v>
@@ -12295,7 +12480,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="78"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -12306,7 +12491,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="11"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="64"/>
+      <c r="T42" s="85"/>
       <c r="U42" s="16"/>
       <c r="V42" s="16"/>
       <c r="W42" s="18"/>
@@ -12322,7 +12507,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="78"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -12333,7 +12518,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="11"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="64"/>
+      <c r="T43" s="85"/>
       <c r="U43" s="16"/>
       <c r="V43" s="16"/>
       <c r="W43" s="18"/>
@@ -12349,7 +12534,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="78"/>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -12380,7 +12565,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="78"/>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -12412,7 +12597,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="78"/>
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -12444,7 +12629,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="78"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -12476,7 +12661,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="78"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -12494,7 +12679,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12508,7 +12693,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="78"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -12535,12 +12720,12 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="65"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="34"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
       <c r="H50" s="35"/>
-      <c r="I50" s="81"/>
+      <c r="I50" s="35"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
@@ -12549,7 +12734,7 @@
       <c r="O50" s="35"/>
       <c r="P50" s="35"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="65"/>
+      <c r="R50" s="86"/>
       <c r="S50" s="32"/>
       <c r="T50" s="46"/>
       <c r="U50" s="48"/>
@@ -12572,7 +12757,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="78"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -12604,7 +12789,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
-      <c r="I52" s="82"/>
+      <c r="I52" s="36"/>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
@@ -12622,7 +12807,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12636,7 +12821,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="36"/>
       <c r="H53" s="36"/>
-      <c r="I53" s="82"/>
+      <c r="I53" s="36"/>
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="37"/>
@@ -12668,7 +12853,7 @@
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
-      <c r="I54" s="83"/>
+      <c r="I54" s="42"/>
       <c r="J54" s="42"/>
       <c r="K54" s="42"/>
       <c r="L54" s="43"/>
@@ -12700,7 +12885,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="36"/>
-      <c r="I55" s="82"/>
+      <c r="I55" s="36"/>
       <c r="J55" s="36"/>
       <c r="K55" s="36"/>
       <c r="L55" s="37"/>
@@ -12732,7 +12917,7 @@
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
       <c r="H56" s="36"/>
-      <c r="I56" s="82"/>
+      <c r="I56" s="36"/>
       <c r="J56" s="36"/>
       <c r="K56" s="36"/>
       <c r="L56" s="37"/>
@@ -12745,10 +12930,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12764,7 +12949,7 @@
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
       <c r="H57" s="36"/>
-      <c r="I57" s="82"/>
+      <c r="I57" s="36"/>
       <c r="J57" s="36"/>
       <c r="K57" s="36"/>
       <c r="L57" s="37"/>
@@ -12777,8 +12962,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12791,7 +12976,7 @@
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="36"/>
-      <c r="I58" s="82"/>
+      <c r="I58" s="36"/>
       <c r="J58" s="36"/>
       <c r="K58" s="36"/>
       <c r="L58" s="37"/>
@@ -12804,8 +12989,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -12818,7 +13003,7 @@
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="36"/>
-      <c r="I59" s="82"/>
+      <c r="I59" s="36"/>
       <c r="J59" s="36"/>
       <c r="K59" s="36"/>
       <c r="L59" s="37"/>
@@ -12845,7 +13030,7 @@
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
       <c r="H60" s="36"/>
-      <c r="I60" s="82"/>
+      <c r="I60" s="36"/>
       <c r="J60" s="36"/>
       <c r="K60" s="36"/>
       <c r="L60" s="37"/>
@@ -12872,7 +13057,7 @@
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="36"/>
-      <c r="I61" s="82"/>
+      <c r="I61" s="36"/>
       <c r="J61" s="36"/>
       <c r="K61" s="36"/>
       <c r="L61" s="37"/>
@@ -12904,7 +13089,7 @@
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="82"/>
+      <c r="I62" s="36"/>
       <c r="J62" s="36"/>
       <c r="K62" s="36"/>
       <c r="L62" s="37"/>
@@ -12936,7 +13121,7 @@
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
       <c r="H63" s="36"/>
-      <c r="I63" s="82"/>
+      <c r="I63" s="36"/>
       <c r="J63" s="36"/>
       <c r="K63" s="36"/>
       <c r="L63" s="37"/>
@@ -12963,7 +13148,7 @@
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="36"/>
-      <c r="I64" s="82"/>
+      <c r="I64" s="36"/>
       <c r="J64" s="36"/>
       <c r="K64" s="36"/>
       <c r="L64" s="37"/>
@@ -12990,7 +13175,7 @@
       <c r="F65" s="36"/>
       <c r="G65" s="36"/>
       <c r="H65" s="36"/>
-      <c r="I65" s="82"/>
+      <c r="I65" s="36"/>
       <c r="J65" s="36"/>
       <c r="K65" s="36"/>
       <c r="L65" s="37"/>
@@ -13017,7 +13202,7 @@
       <c r="F66" s="36"/>
       <c r="G66" s="36"/>
       <c r="H66" s="36"/>
-      <c r="I66" s="82"/>
+      <c r="I66" s="36"/>
       <c r="J66" s="36"/>
       <c r="K66" s="36"/>
       <c r="L66" s="37"/>
@@ -13044,7 +13229,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
       <c r="H67" s="36"/>
-      <c r="I67" s="82"/>
+      <c r="I67" s="36"/>
       <c r="J67" s="36"/>
       <c r="K67" s="36"/>
       <c r="L67" s="37"/>
@@ -13074,7 +13259,7 @@
       <c r="F68" s="36"/>
       <c r="G68" s="36"/>
       <c r="H68" s="36"/>
-      <c r="I68" s="82"/>
+      <c r="I68" s="36"/>
       <c r="J68" s="36"/>
       <c r="K68" s="36"/>
       <c r="L68" s="37"/>
@@ -13101,7 +13286,7 @@
       <c r="F69" s="36"/>
       <c r="G69" s="36"/>
       <c r="H69" s="36"/>
-      <c r="I69" s="82"/>
+      <c r="I69" s="36"/>
       <c r="J69" s="36"/>
       <c r="K69" s="36"/>
       <c r="L69" s="37"/>
@@ -13128,7 +13313,7 @@
       <c r="F70" s="36"/>
       <c r="G70" s="36"/>
       <c r="H70" s="36"/>
-      <c r="I70" s="82"/>
+      <c r="I70" s="36"/>
       <c r="J70" s="36"/>
       <c r="K70" s="36"/>
       <c r="L70" s="37"/>
@@ -13155,7 +13340,7 @@
       <c r="F71" s="36"/>
       <c r="G71" s="36"/>
       <c r="H71" s="36"/>
-      <c r="I71" s="82"/>
+      <c r="I71" s="36"/>
       <c r="J71" s="36"/>
       <c r="K71" s="36"/>
       <c r="L71" s="37"/>
@@ -13182,7 +13367,7 @@
       <c r="F72" s="36"/>
       <c r="G72" s="36"/>
       <c r="H72" s="36"/>
-      <c r="I72" s="82"/>
+      <c r="I72" s="36"/>
       <c r="J72" s="36"/>
       <c r="K72" s="36"/>
       <c r="L72" s="37"/>
@@ -13209,7 +13394,7 @@
       <c r="F73" s="36"/>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
-      <c r="I73" s="82"/>
+      <c r="I73" s="36"/>
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -13236,7 +13421,7 @@
       <c r="F74" s="36"/>
       <c r="G74" s="36"/>
       <c r="H74" s="36"/>
-      <c r="I74" s="82"/>
+      <c r="I74" s="36"/>
       <c r="J74" s="36"/>
       <c r="K74" s="36"/>
       <c r="L74" s="37"/>
@@ -13263,7 +13448,7 @@
       <c r="F75" s="36"/>
       <c r="G75" s="36"/>
       <c r="H75" s="36"/>
-      <c r="I75" s="82"/>
+      <c r="I75" s="36"/>
       <c r="J75" s="36"/>
       <c r="K75" s="36"/>
       <c r="L75" s="37"/>
@@ -13290,7 +13475,7 @@
       <c r="F76" s="36"/>
       <c r="G76" s="36"/>
       <c r="H76" s="36"/>
-      <c r="I76" s="82"/>
+      <c r="I76" s="36"/>
       <c r="J76" s="36"/>
       <c r="K76" s="36"/>
       <c r="L76" s="37"/>
@@ -13317,7 +13502,7 @@
       <c r="F77" s="36"/>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
-      <c r="I77" s="82"/>
+      <c r="I77" s="36"/>
       <c r="J77" s="36"/>
       <c r="K77" s="36"/>
       <c r="L77" s="37"/>
@@ -13344,7 +13529,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="36"/>
       <c r="H78" s="36"/>
-      <c r="I78" s="82"/>
+      <c r="I78" s="36"/>
       <c r="J78" s="36"/>
       <c r="K78" s="36"/>
       <c r="L78" s="37"/>
@@ -13371,7 +13556,7 @@
       <c r="F79" s="36"/>
       <c r="G79" s="36"/>
       <c r="H79" s="36"/>
-      <c r="I79" s="82"/>
+      <c r="I79" s="36"/>
       <c r="J79" s="36"/>
       <c r="K79" s="36"/>
       <c r="L79" s="37"/>
@@ -13398,7 +13583,7 @@
       <c r="F80" s="36"/>
       <c r="G80" s="36"/>
       <c r="H80" s="36"/>
-      <c r="I80" s="82"/>
+      <c r="I80" s="36"/>
       <c r="J80" s="36"/>
       <c r="K80" s="36"/>
       <c r="L80" s="37"/>
@@ -13425,7 +13610,7 @@
       <c r="F81" s="36"/>
       <c r="G81" s="36"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="82"/>
+      <c r="I81" s="36"/>
       <c r="J81" s="36"/>
       <c r="K81" s="36"/>
       <c r="L81" s="37"/>
@@ -13452,7 +13637,7 @@
       <c r="F82" s="36"/>
       <c r="G82" s="36"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="82"/>
+      <c r="I82" s="36"/>
       <c r="J82" s="36"/>
       <c r="K82" s="36"/>
       <c r="L82" s="37"/>
@@ -13479,7 +13664,7 @@
       <c r="F83" s="36"/>
       <c r="G83" s="36"/>
       <c r="H83" s="36"/>
-      <c r="I83" s="82"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="36"/>
       <c r="K83" s="36"/>
       <c r="L83" s="37"/>
@@ -13506,7 +13691,7 @@
       <c r="F84" s="36"/>
       <c r="G84" s="36"/>
       <c r="H84" s="36"/>
-      <c r="I84" s="82"/>
+      <c r="I84" s="36"/>
       <c r="J84" s="36"/>
       <c r="K84" s="36"/>
       <c r="L84" s="37"/>
@@ -13533,7 +13718,7 @@
       <c r="F85" s="36"/>
       <c r="G85" s="36"/>
       <c r="H85" s="36"/>
-      <c r="I85" s="82"/>
+      <c r="I85" s="36"/>
       <c r="J85" s="36"/>
       <c r="K85" s="36"/>
       <c r="L85" s="37"/>
@@ -13560,7 +13745,7 @@
       <c r="F86" s="36"/>
       <c r="G86" s="36"/>
       <c r="H86" s="36"/>
-      <c r="I86" s="82"/>
+      <c r="I86" s="36"/>
       <c r="J86" s="36"/>
       <c r="K86" s="36"/>
       <c r="L86" s="37"/>
@@ -13587,7 +13772,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="36"/>
       <c r="H87" s="36"/>
-      <c r="I87" s="82"/>
+      <c r="I87" s="36"/>
       <c r="J87" s="36"/>
       <c r="K87" s="36"/>
       <c r="L87" s="37"/>
@@ -13614,7 +13799,7 @@
       <c r="F88" s="36"/>
       <c r="G88" s="36"/>
       <c r="H88" s="36"/>
-      <c r="I88" s="82"/>
+      <c r="I88" s="36"/>
       <c r="J88" s="36"/>
       <c r="K88" s="36"/>
       <c r="L88" s="37"/>
@@ -13641,7 +13826,7 @@
       <c r="F89" s="36"/>
       <c r="G89" s="36"/>
       <c r="H89" s="36"/>
-      <c r="I89" s="82"/>
+      <c r="I89" s="36"/>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
       <c r="L89" s="37"/>
@@ -13668,7 +13853,7 @@
       <c r="F90" s="36"/>
       <c r="G90" s="36"/>
       <c r="H90" s="36"/>
-      <c r="I90" s="82"/>
+      <c r="I90" s="36"/>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
       <c r="L90" s="37"/>
@@ -13695,7 +13880,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="36"/>
       <c r="H91" s="36"/>
-      <c r="I91" s="82"/>
+      <c r="I91" s="36"/>
       <c r="J91" s="36"/>
       <c r="K91" s="36"/>
       <c r="L91" s="37"/>
@@ -13722,7 +13907,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="36"/>
       <c r="H92" s="36"/>
-      <c r="I92" s="82"/>
+      <c r="I92" s="36"/>
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="37"/>
@@ -13749,7 +13934,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="36"/>
       <c r="H93" s="36"/>
-      <c r="I93" s="82"/>
+      <c r="I93" s="36"/>
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="37"/>
@@ -13776,7 +13961,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="82"/>
+      <c r="I94" s="36"/>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="37"/>
@@ -13803,7 +13988,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="82"/>
+      <c r="I95" s="36"/>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="37"/>
@@ -13830,7 +14015,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="36"/>
       <c r="H96" s="36"/>
-      <c r="I96" s="82"/>
+      <c r="I96" s="36"/>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="37"/>
@@ -13857,7 +14042,7 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="82"/>
+      <c r="I97" s="36"/>
       <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="37"/>
@@ -13884,7 +14069,7 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="82"/>
+      <c r="I98" s="36"/>
       <c r="J98" s="36"/>
       <c r="K98" s="36"/>
       <c r="L98" s="37"/>
@@ -13911,7 +14096,7 @@
       <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="82"/>
+      <c r="I99" s="36"/>
       <c r="J99" s="36"/>
       <c r="K99" s="36"/>
       <c r="L99" s="37"/>
@@ -13938,7 +14123,7 @@
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="82"/>
+      <c r="I100" s="36"/>
       <c r="J100" s="36"/>
       <c r="K100" s="36"/>
       <c r="L100" s="37"/>
@@ -13965,7 +14150,7 @@
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
       <c r="H101" s="36"/>
-      <c r="I101" s="82"/>
+      <c r="I101" s="36"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -13992,7 +14177,7 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="82"/>
+      <c r="I102" s="36"/>
       <c r="J102" s="36"/>
       <c r="K102" s="36"/>
       <c r="L102" s="37"/>
@@ -14019,7 +14204,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="82"/>
+      <c r="I103" s="36"/>
       <c r="J103" s="36"/>
       <c r="K103" s="36"/>
       <c r="L103" s="37"/>
@@ -14046,7 +14231,7 @@
       <c r="F104" s="36"/>
       <c r="G104" s="36"/>
       <c r="H104" s="36"/>
-      <c r="I104" s="82"/>
+      <c r="I104" s="36"/>
       <c r="J104" s="36"/>
       <c r="K104" s="36"/>
       <c r="L104" s="37"/>
@@ -14073,7 +14258,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="82"/>
+      <c r="I105" s="36"/>
       <c r="J105" s="36"/>
       <c r="K105" s="36"/>
       <c r="L105" s="37"/>
@@ -14092,6 +14277,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14102,16 +14297,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14154,43 +14339,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -14235,58 +14420,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="114" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105" t="s">
+      <c r="P4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="106" t="s">
+      <c r="Q4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="107" t="s">
+      <c r="S4" s="114" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="106" t="s">
+      <c r="W4" s="104" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -14311,24 +14496,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="106"/>
+      <c r="J5" s="104"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="108"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="115"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -14354,7 +14539,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="99" t="s">
+      <c r="V6" s="107" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14385,7 +14570,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="100"/>
+      <c r="V7" s="108"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14414,7 +14599,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="100"/>
+      <c r="V8" s="108"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14443,7 +14628,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="100"/>
+      <c r="V9" s="108"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14472,7 +14657,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="100"/>
+      <c r="V10" s="108"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14501,7 +14686,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="100"/>
+      <c r="V11" s="108"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14530,7 +14715,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="99" t="s">
+      <c r="V12" s="107" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14561,7 +14746,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="100"/>
+      <c r="V13" s="108"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14590,7 +14775,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="100"/>
+      <c r="V14" s="108"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14619,7 +14804,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="100"/>
+      <c r="V15" s="108"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14648,7 +14833,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="101"/>
+      <c r="V16" s="109"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15882,10 +16067,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="102" t="s">
+      <c r="V56" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="102">
+      <c r="W56" s="110">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15914,8 +16099,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="103"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15941,8 +16126,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
